--- a/data/mass_ratios/fractions_mass_ratios.xlsx
+++ b/data/mass_ratios/fractions_mass_ratios.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimafilatov/Desktop/6_year/диплом/tasks_solution/2_go_ftir_sfa_ml/data_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dimafilatov/Desktop/science/articles/go_ftir_sfa/research/data_analysis/data/mass_ratios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0B467B-522E-A14B-A316-C6D10F999246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5618593-6671-8443-8C53-2C218DD52DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{67CA3309-536E-7341-8B2D-65CDDB2D66BD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{67CA3309-536E-7341-8B2D-65CDDB2D66BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,30 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>&gt;70</t>
-  </si>
-  <si>
-    <t>&gt;25</t>
-  </si>
-  <si>
-    <t>&gt;5</t>
-  </si>
-  <si>
-    <t>&gt;3</t>
-  </si>
-  <si>
-    <t>&gt;2.5</t>
-  </si>
-  <si>
-    <t>&gt;2</t>
-  </si>
-  <si>
-    <t>&gt;0.4</t>
-  </si>
-  <si>
-    <t>&gt;0.2</t>
-  </si>
-  <si>
     <t>Membrane_Type</t>
   </si>
   <si>
@@ -68,6 +44,30 @@
   </si>
   <si>
     <t>Ratio, %</t>
+  </si>
+  <si>
+    <t>&lt;70</t>
+  </si>
+  <si>
+    <t>&lt;25</t>
+  </si>
+  <si>
+    <t>&lt;5</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
+  </si>
+  <si>
+    <t>&lt;2.5</t>
+  </si>
+  <si>
+    <t>&lt;2</t>
+  </si>
+  <si>
+    <t>&lt;0.4</t>
+  </si>
+  <si>
+    <t>&lt;0.2</t>
   </si>
 </sst>
 </file>
@@ -132,12 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,115 +457,115 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>13</v>
       </c>
       <c r="C2" s="1">
-        <f>B2/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" ref="C2:C9" si="0">B2/SUM($B$2:$B$9) * 100</f>
         <v>1.8683529749928138</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
         <v>26.7</v>
       </c>
       <c r="C3" s="1">
-        <f>B3/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>3.8373095717160099</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>623.5</v>
       </c>
       <c r="C4" s="1">
-        <f>B4/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>89.609083069847657</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>0.57487783845932738</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
         <v>5.7</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>0.81920091980454157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>5.3</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>0.76171313595860868</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
         <v>6.7</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>0.96292037941937325</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
         <v>10.9</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/SUM($B$2:$B$9) * 100</f>
+        <f t="shared" si="0"/>
         <v>1.566542109801667</v>
       </c>
     </row>
